--- a/템플릿/한국도로공사50억미만.xlsx
+++ b/템플릿/한국도로공사50억미만.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="38280" yWindow="7830" windowWidth="29040" windowHeight="15840" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="템플릿" sheetId="674" r:id="rId1"/>
+    <sheet name="양식" sheetId="674" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">템플릿!$A$1:$AU$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">양식!$A$1:$AU$139</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1775,6 +1775,87 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1792,87 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2199,7 +2199,7 @@
   <dimension ref="A1:AU139"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2239,46 +2239,46 @@
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
       <c r="K1" s="99"/>
       <c r="L1" s="95"/>
-      <c r="M1" s="220" t="s">
+      <c r="M1" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
       <c r="AG1" s="114"/>
-      <c r="AH1" s="221" t="s">
+      <c r="AH1" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="221"/>
-      <c r="AJ1" s="221"/>
-      <c r="AK1" s="221"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
       <c r="AL1" s="148"/>
       <c r="AM1" s="148"/>
       <c r="AN1" s="148"/>
@@ -2295,18 +2295,18 @@
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="223"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="199"/>
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="224">
+      <c r="I2" s="200">
         <f>D2*1</f>
         <v>0</v>
       </c>
-      <c r="J2" s="225"/>
+      <c r="J2" s="201"/>
       <c r="K2" s="98" t="s">
         <v>25</v>
       </c>
@@ -2316,12 +2316,12 @@
       <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
       <c r="V2" s="9"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -2353,99 +2353,99 @@
       <c r="AU2" s="124"/>
     </row>
     <row r="3" spans="1:47" s="16" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="202" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="204" t="s">
+      <c r="A3" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="209" t="s">
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="210" t="s">
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="212" t="s">
+      <c r="O3" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="208"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="211"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="209" t="s">
+      <c r="W3" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="208"/>
+      <c r="X3" s="210"/>
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="211"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="15"/>
-      <c r="AI3" s="214" t="s">
+      <c r="AI3" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="204" t="s">
+      <c r="AJ3" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="216" t="s">
+      <c r="AK3" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="200" t="s">
+      <c r="AL3" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="196" t="s">
+      <c r="AM3" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="198" t="s">
+      <c r="AN3" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="194" t="s">
+      <c r="AO3" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="194" t="s">
+      <c r="AP3" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="194" t="s">
+      <c r="AQ3" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="194" t="s">
+      <c r="AR3" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="194" t="s">
+      <c r="AS3" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="195" t="s">
+      <c r="AT3" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="AU3" s="195" t="s">
+      <c r="AU3" s="222" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="16" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="203"/>
-      <c r="B4" s="205"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="90" t="s">
         <v>14</v>
       </c>
@@ -2479,8 +2479,8 @@
       <c r="M4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="211"/>
-      <c r="O4" s="213"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="216"/>
       <c r="P4" s="17" t="s">
         <v>14</v>
       </c>
@@ -2538,19 +2538,19 @@
       <c r="AH4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="205"/>
-      <c r="AK4" s="217"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="199"/>
-      <c r="AO4" s="194"/>
-      <c r="AP4" s="194"/>
-      <c r="AQ4" s="194"/>
-      <c r="AR4" s="194"/>
-      <c r="AS4" s="194"/>
-      <c r="AT4" s="195"/>
-      <c r="AU4" s="195"/>
+      <c r="AI4" s="218"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="220"/>
+      <c r="AL4" s="204"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="226"/>
+      <c r="AO4" s="221"/>
+      <c r="AP4" s="221"/>
+      <c r="AQ4" s="221"/>
+      <c r="AR4" s="221"/>
+      <c r="AS4" s="221"/>
+      <c r="AT4" s="222"/>
+      <c r="AU4" s="222"/>
     </row>
     <row r="5" spans="1:47" s="49" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A5" s="117"/>
@@ -15785,14 +15785,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:AF1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -15805,15 +15806,14 @@
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:AF1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:U2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
